--- a/data/trans_dic/P07B_R_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P07B_R_2023-Dificultad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09989563403668962</v>
+        <v>0.1012943158382313</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1377759975342328</v>
+        <v>0.1398729410289413</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.128657649940089</v>
+        <v>0.126213322511191</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1591783185571501</v>
+        <v>0.1608639874556566</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1890421946952291</v>
+        <v>0.1878709567151464</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1672560938251747</v>
+        <v>0.1644116336500092</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.048336113461761</v>
+        <v>0.04792288171695785</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08033643814866304</v>
+        <v>0.07974115522200612</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0683177625134979</v>
+        <v>0.06915839788967269</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08305572442832314</v>
+        <v>0.08181936051547077</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.110480602180603</v>
+        <v>0.1091585433449839</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09145156428661846</v>
+        <v>0.09060711935258919</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.04281168432063701</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.0827586092299821</v>
+        <v>0.08275860922998211</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.06279623319310808</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03079502492285985</v>
+        <v>0.03143961476356499</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06933149381224753</v>
+        <v>0.06976382165412114</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05311282326347779</v>
+        <v>0.05374141586312463</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05771990495973879</v>
+        <v>0.05809082873577989</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09857438440270727</v>
+        <v>0.09864778140291268</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07337080788637575</v>
+        <v>0.07403575905198904</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03419564924463071</v>
+        <v>0.03426896101139982</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05401915510582105</v>
+        <v>0.05270457891618641</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04635845288674506</v>
+        <v>0.04628587458371577</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06553687633051658</v>
+        <v>0.0631634453997045</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08162694875581143</v>
+        <v>0.08122436790137855</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06793304566615367</v>
+        <v>0.06690975340979867</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.0615901602271617</v>
+        <v>0.06159016022716171</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.09552992258068778</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.07906950080414792</v>
+        <v>0.07906950080414789</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05328975078025038</v>
+        <v>0.05350540854577317</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08775988676677354</v>
+        <v>0.08779142218515194</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07352561657015071</v>
+        <v>0.07333021575596055</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07091143025007222</v>
+        <v>0.06977954998065726</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1036397964676999</v>
+        <v>0.1039282496773587</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08499626225802748</v>
+        <v>0.08507740203934104</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>49822</v>
+        <v>50519</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>85914</v>
+        <v>87222</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>144395</v>
+        <v>141652</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>79388</v>
+        <v>80229</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>117883</v>
+        <v>117153</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>187715</v>
+        <v>184522</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>46409</v>
+        <v>46013</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>89643</v>
+        <v>88979</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>141827</v>
+        <v>143572</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>79745</v>
+        <v>78558</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>123280</v>
+        <v>121804</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>189852</v>
+        <v>188099</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>32226</v>
+        <v>32901</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>72635</v>
+        <v>73088</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>111225</v>
+        <v>112541</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>60403</v>
+        <v>60791</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>103271</v>
+        <v>103348</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>153647</v>
+        <v>155040</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>33373</v>
+        <v>33444</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>49142</v>
+        <v>47946</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>87415</v>
+        <v>87278</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>63959</v>
+        <v>61643</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>74257</v>
+        <v>73891</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>128097</v>
+        <v>126168</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>185517</v>
+        <v>186268</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>324429</v>
+        <v>324546</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>527772</v>
+        <v>526369</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>246863</v>
+        <v>242922</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>383134</v>
+        <v>384200</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>610109</v>
+        <v>610691</v>
       </c>
     </row>
     <row r="24">
